--- a/wcsa5Seleniumproject/data/ActitimeTestData.xlsx
+++ b/wcsa5Seleniumproject/data/ActitimeTestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49b93620cb2da835/Desktop/wcsa5 workspace/wcsa5Seleniumproject/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shgir\git\Selenium_Practice\wcsa5Seleniumproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_F25DC773A252ABDACC104860411C4BF85BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA1169FC-44AF-49C4-9EBE-CD340CF8B71C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A0288E-C9B0-452C-A3CE-099D5E880C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="managercreds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -68,6 +69,18 @@
   </si>
   <si>
     <t>123admin</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t>Parmar</t>
   </si>
 </sst>
 </file>
@@ -124,12 +137,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E6BD81-EC74-45C7-AE4D-77FA14E0987E}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -524,4 +538,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B373195-5FBC-470E-8BDC-85D0272F3630}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>